--- a/ITcoach/openpyxl处理数据/1.14 实例应用（筛选成绩总分大于等于300分的记录）/test.xlsx
+++ b/ITcoach/openpyxl处理数据/1.14 实例应用（筛选成绩总分大于等于300分的记录）/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel数据处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\ITcoach\openpyxl处理数据\1.14 实例应用（筛选成绩总分大于等于300分的记录）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FA6FB0-5E84-4C8F-815E-D5290597B3AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEE225-D093-4023-A1B2-A109C2B98B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成绩表" sheetId="1" r:id="rId1"/>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
